--- a/New Model Checking Result/NewModelCheckingResult/NewModelCheckingResult/Template/G2-QA-IQC-F074Rev01.xlsx
+++ b/New Model Checking Result/NewModelCheckingResult/NewModelCheckingResult/Template/G2-QA-IQC-F074Rev01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" tabRatio="645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 (CP ITEMS)" sheetId="25" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 (CP ITEMS)'!$A$1:$X$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 (CP  ITEMS)'!$A$1:$R$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 (CP  ITEMS)'!$A$1:$R$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Max</t>
     <phoneticPr fontId="3"/>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Lot no:</t>
-  </si>
-  <si>
-    <t>12.12.2019</t>
   </si>
   <si>
     <t>Test First lot</t>
@@ -687,7 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,10 +770,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -792,9 +786,6 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,9 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -823,7 +811,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,10 +844,6 @@
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,6 +866,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1069,21 @@
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3723,7 +3722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T6" sqref="T6:U6"/>
     </sheetView>
   </sheetViews>
@@ -3748,32 +3747,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="117"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="110"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
       <c r="A2" s="31"/>
@@ -3792,238 +3791,238 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="34"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="49"/>
+      <c r="Q2" s="33"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="45"/>
       <c r="Y2" s="30"/>
     </row>
-    <row r="3" spans="1:25" s="78" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:25" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80" t="s">
+      <c r="B3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="91" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-    </row>
-    <row r="4" spans="1:25" s="78" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="S3" s="84"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+    </row>
+    <row r="4" spans="1:25" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80" t="s">
+      <c r="B4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="91" t="s">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="91"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="84"/>
-    </row>
-    <row r="5" spans="1:25" s="78" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="S4" s="84"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="76"/>
+    </row>
+    <row r="5" spans="1:25" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80" t="s">
+      <c r="B5" s="69"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="91" t="s">
+      <c r="O5" s="79"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="84"/>
-    </row>
-    <row r="6" spans="1:25" s="78" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="S5" s="84"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="76"/>
+    </row>
+    <row r="6" spans="1:25" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="84"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="74"/>
+    </row>
+    <row r="7" spans="1:25" s="27" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="43"/>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A8" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="91"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="82"/>
-    </row>
-    <row r="7" spans="1:25" s="27" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="47"/>
-    </row>
-    <row r="8" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="127" t="s">
+      <c r="I8" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="47"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="43"/>
     </row>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
     </row>
     <row r="10" spans="1:25" ht="32.25" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -4044,10 +4043,10 @@
       <c r="F10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="131"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -4069,66 +4068,66 @@
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
+      <c r="G11" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="124"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="43"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4137,26 +4136,26 @@
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="43"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -4165,20 +4164,20 @@
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="69"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -4193,13 +4192,13 @@
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -4221,19 +4220,19 @@
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="66"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
@@ -4249,19 +4248,19 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="66"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
@@ -4277,19 +4276,19 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="73"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="60"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
@@ -4305,19 +4304,19 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="75"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="66"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
@@ -4333,19 +4332,19 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="73"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="66"/>
+      <c r="N20" s="60"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
@@ -4361,19 +4360,19 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="73"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="60"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
@@ -4389,19 +4388,19 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="66"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
@@ -4417,19 +4416,19 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="66"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
@@ -4445,19 +4444,19 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="75"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="73"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="66"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -4473,19 +4472,19 @@
       <c r="A25" s="6">
         <v>10</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="66"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
@@ -4501,19 +4500,19 @@
       <c r="A26" s="6">
         <v>11</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="75"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="73"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="66"/>
+      <c r="N26" s="60"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
@@ -4524,25 +4523,25 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Z26" s="93"/>
+      <c r="Z26" s="86"/>
     </row>
     <row r="27" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="75"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="66"/>
+      <c r="N27" s="60"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
@@ -4553,25 +4552,25 @@
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
       <c r="X27" s="28"/>
-      <c r="Z27" s="94"/>
+      <c r="Z27" s="87"/>
     </row>
     <row r="28" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="6">
         <v>13</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="75"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="66"/>
+      <c r="N28" s="60"/>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
@@ -4582,25 +4581,25 @@
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
       <c r="X28" s="28"/>
-      <c r="Z28" s="94"/>
+      <c r="Z28" s="87"/>
     </row>
     <row r="29" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="6">
         <v>14</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="75"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="73"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="66"/>
+      <c r="N29" s="60"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -4611,25 +4610,25 @@
       <c r="V29" s="28"/>
       <c r="W29" s="28"/>
       <c r="X29" s="28"/>
-      <c r="Z29" s="94"/>
+      <c r="Z29" s="87"/>
     </row>
     <row r="30" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="6">
         <v>15</v>
       </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="75"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="66"/>
+      <c r="N30" s="60"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
@@ -4640,25 +4639,25 @@
       <c r="V30" s="28"/>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
-      <c r="Z30" s="94"/>
+      <c r="Z30" s="87"/>
     </row>
     <row r="31" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="6">
         <v>16</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="75"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="73"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="66"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
@@ -4669,25 +4668,25 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
-      <c r="Z31" s="94"/>
+      <c r="Z31" s="87"/>
     </row>
     <row r="32" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="6">
         <v>17</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="75"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="66"/>
+      <c r="N32" s="60"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
@@ -4698,25 +4697,25 @@
       <c r="V32" s="28"/>
       <c r="W32" s="28"/>
       <c r="X32" s="28"/>
-      <c r="Z32" s="94"/>
+      <c r="Z32" s="87"/>
     </row>
     <row r="33" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="6">
         <v>18</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="66"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
@@ -4727,25 +4726,25 @@
       <c r="V33" s="28"/>
       <c r="W33" s="28"/>
       <c r="X33" s="28"/>
-      <c r="Z33" s="94"/>
+      <c r="Z33" s="87"/>
     </row>
     <row r="34" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="6">
         <v>19</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="66"/>
+      <c r="N34" s="60"/>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
@@ -4756,25 +4755,25 @@
       <c r="V34" s="28"/>
       <c r="W34" s="28"/>
       <c r="X34" s="28"/>
-      <c r="Z34" s="94"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="6">
         <v>20</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="75"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="73"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="66"/>
+      <c r="N35" s="60"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
@@ -4785,25 +4784,25 @@
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
-      <c r="Z35" s="94"/>
+      <c r="Z35" s="87"/>
     </row>
     <row r="36" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="6">
         <v>21</v>
       </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="75"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="73"/>
+      <c r="J36" s="65"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="66"/>
+      <c r="N36" s="60"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
@@ -4814,25 +4813,25 @@
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
-      <c r="Z36" s="94"/>
+      <c r="Z36" s="87"/>
     </row>
     <row r="37" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="6">
         <v>22</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="75"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="66"/>
+      <c r="N37" s="60"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
@@ -4843,25 +4842,25 @@
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
-      <c r="Z37" s="94"/>
+      <c r="Z37" s="87"/>
     </row>
     <row r="38" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="6">
         <v>23</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="75"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="73"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
-      <c r="N38" s="66"/>
+      <c r="N38" s="60"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
@@ -4872,25 +4871,25 @@
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
-      <c r="Z38" s="94"/>
+      <c r="Z38" s="87"/>
     </row>
     <row r="39" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="6">
         <v>24</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="75"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="66"/>
+      <c r="N39" s="60"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28"/>
@@ -4901,25 +4900,25 @@
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
-      <c r="Z39" s="94"/>
+      <c r="Z39" s="87"/>
     </row>
     <row r="40" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="6">
         <v>25</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="75"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
-      <c r="N40" s="66"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
@@ -4930,25 +4929,25 @@
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
-      <c r="Z40" s="94"/>
+      <c r="Z40" s="87"/>
     </row>
     <row r="41" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="6">
         <v>26</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="75"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="66"/>
+      <c r="N41" s="60"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
@@ -4959,25 +4958,25 @@
       <c r="V41" s="28"/>
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
-      <c r="Z41" s="94"/>
+      <c r="Z41" s="87"/>
     </row>
     <row r="42" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="6">
         <v>27</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="75"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="66"/>
+      <c r="N42" s="60"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28"/>
@@ -4988,25 +4987,25 @@
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
-      <c r="Z42" s="94"/>
+      <c r="Z42" s="87"/>
     </row>
     <row r="43" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="6">
         <v>28</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="75"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="66"/>
+      <c r="N43" s="60"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
@@ -5017,25 +5016,25 @@
       <c r="V43" s="28"/>
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
-      <c r="Z43" s="94"/>
+      <c r="Z43" s="87"/>
     </row>
     <row r="44" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="6">
         <v>29</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="75"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="73"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="66"/>
+      <c r="N44" s="60"/>
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
@@ -5046,25 +5045,25 @@
       <c r="V44" s="28"/>
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
-      <c r="Z44" s="94"/>
+      <c r="Z44" s="87"/>
     </row>
     <row r="45" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="6">
         <v>30</v>
       </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="75"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="67"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="73"/>
+      <c r="J45" s="65"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="66"/>
+      <c r="N45" s="60"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="28"/>
@@ -5075,25 +5074,25 @@
       <c r="V45" s="28"/>
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
-      <c r="Z45" s="94"/>
+      <c r="Z45" s="87"/>
     </row>
     <row r="46" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="6">
         <v>31</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="75"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="73"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
-      <c r="N46" s="66"/>
+      <c r="N46" s="60"/>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
       <c r="Q46" s="28"/>
@@ -5104,25 +5103,25 @@
       <c r="V46" s="28"/>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
-      <c r="Z46" s="94"/>
+      <c r="Z46" s="87"/>
     </row>
     <row r="47" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="6">
         <v>32</v>
       </c>
-      <c r="B47" s="112"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="75"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="67"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="66"/>
+      <c r="N47" s="60"/>
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
       <c r="Q47" s="28"/>
@@ -5133,91 +5132,91 @@
       <c r="V47" s="28"/>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
-      <c r="Z47" s="94"/>
+      <c r="Z47" s="87"/>
     </row>
     <row r="48" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="65">
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="59">
         <f t="shared" ref="I48:Y48" si="0">MAX(I16:I47)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="65">
+      <c r="J48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K48" s="65">
+      <c r="K48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="65">
+      <c r="M48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N48" s="65">
+      <c r="N48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O48" s="65">
+      <c r="O48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P48" s="65">
+      <c r="P48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="65">
+      <c r="Q48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R48" s="65">
+      <c r="R48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S48" s="65">
+      <c r="S48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T48" s="65">
+      <c r="T48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U48" s="65">
+      <c r="U48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V48" s="65">
+      <c r="V48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W48" s="65">
+      <c r="W48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X48" s="65">
+      <c r="X48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="63">
+      <c r="Y48" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="94"/>
+      <c r="Z48" s="87"/>
     </row>
     <row r="49" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="7"/>
@@ -5227,78 +5226,78 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="65" t="str">
+      <c r="I49" s="59" t="str">
         <f t="shared" ref="I49:Y49" si="1">IF(I16="","",MIN(I16:I47))</f>
         <v/>
       </c>
-      <c r="J49" s="65" t="str">
+      <c r="J49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K49" s="65" t="str">
+      <c r="K49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L49" s="65" t="str">
+      <c r="L49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M49" s="65" t="str">
+      <c r="M49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N49" s="65" t="str">
+      <c r="N49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O49" s="65" t="str">
+      <c r="O49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P49" s="65" t="str">
+      <c r="P49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q49" s="65" t="str">
+      <c r="Q49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R49" s="65" t="str">
+      <c r="R49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S49" s="65" t="str">
+      <c r="S49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T49" s="65" t="str">
+      <c r="T49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U49" s="65" t="str">
+      <c r="U49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V49" s="65" t="str">
+      <c r="V49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W49" s="65" t="str">
+      <c r="W49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X49" s="65" t="str">
+      <c r="X49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y49" s="64" t="str">
+      <c r="Y49" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z49" s="94"/>
+      <c r="Z49" s="87"/>
     </row>
     <row r="50" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="7"/>
@@ -5308,78 +5307,78 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="65" t="str">
+      <c r="I50" s="59" t="str">
         <f t="shared" ref="I50:Y50" si="2">IF(I16="","",AVERAGE(I16:I47))</f>
         <v/>
       </c>
-      <c r="J50" s="65" t="str">
+      <c r="J50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K50" s="65" t="str">
+      <c r="K50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L50" s="65" t="str">
+      <c r="L50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M50" s="65" t="str">
+      <c r="M50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N50" s="65" t="str">
+      <c r="N50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O50" s="65" t="str">
+      <c r="O50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P50" s="65" t="str">
+      <c r="P50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q50" s="65" t="str">
+      <c r="Q50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R50" s="65" t="str">
+      <c r="R50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S50" s="65" t="str">
+      <c r="S50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T50" s="65" t="str">
+      <c r="T50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U50" s="65" t="str">
+      <c r="U50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V50" s="65" t="str">
+      <c r="V50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W50" s="65" t="str">
+      <c r="W50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X50" s="65" t="str">
+      <c r="X50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y50" s="64" t="str">
+      <c r="Y50" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z50" s="94"/>
+      <c r="Z50" s="87"/>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="7"/>
@@ -5457,10 +5456,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z51" s="94"/>
+      <c r="Z51" s="87"/>
     </row>
     <row r="52" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="7"/>
@@ -5538,10 +5537,10 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z52" s="94"/>
+      <c r="Z52" s="87"/>
     </row>
     <row r="53" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="7"/>
@@ -5619,10 +5618,10 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z53" s="94"/>
+      <c r="Z53" s="87"/>
     </row>
     <row r="54" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="7" t="str">
@@ -5712,7 +5711,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z54" s="94"/>
+      <c r="Z54" s="87"/>
     </row>
     <row r="55" spans="1:26" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -5740,24 +5739,24 @@
       </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="103" t="s">
+      <c r="P55" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="103"/>
-      <c r="S55" s="106" t="s">
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="T55" s="102"/>
-      <c r="U55" s="101" t="s">
+      <c r="T55" s="95"/>
+      <c r="U55" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="V55" s="102"/>
-      <c r="W55" s="103" t="s">
+      <c r="V55" s="95"/>
+      <c r="W55" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="X55" s="103"/>
-      <c r="Z55" s="94"/>
+      <c r="X55" s="96"/>
+      <c r="Z55" s="87"/>
     </row>
     <row r="56" spans="1:26" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A56" s="10"/>
@@ -5783,18 +5782,18 @@
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="95"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Z56" s="94"/>
+      <c r="P56" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="97"/>
+      <c r="X56" s="97"/>
+      <c r="Z56" s="87"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1">
       <c r="A57" s="13"/>
@@ -5820,16 +5819,16 @@
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="105"/>
-      <c r="R57" s="105"/>
-      <c r="S57" s="108"/>
-      <c r="T57" s="98"/>
-      <c r="U57" s="97"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="104"/>
-      <c r="Z57" s="94"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="97"/>
+      <c r="X57" s="97"/>
+      <c r="Z57" s="87"/>
     </row>
     <row r="58" spans="1:26" ht="25.5" customHeight="1">
       <c r="A58" s="14"/>
@@ -5851,15 +5850,15 @@
       <c r="M58" s="25"/>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="100"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="104"/>
-      <c r="X58" s="104"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="102"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="97"/>
+      <c r="X58" s="97"/>
     </row>
     <row r="59" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="L59" s="3"/>
@@ -6389,10 +6388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6411,28 +6410,28 @@
     <col min="19" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.950000000000003" customHeight="1">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:19" ht="36.950000000000003" customHeight="1">
+      <c r="A1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117"/>
-    </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -6444,271 +6443,272 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33" t="s">
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33" t="s">
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="30"/>
+    </row>
+    <row r="6" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A6" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="30"/>
-    </row>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="47"/>
-    </row>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A7" s="139" t="s">
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A8" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B8" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="148" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="47"/>
-    </row>
-    <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-    </row>
-    <row r="9" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="133"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" ht="31.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -6717,38 +6717,36 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="150"/>
+      <c r="M14" s="142"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="6">
         <v>1</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="151" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="6">
-        <v>2</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -6757,11 +6755,13 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="73"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="151"/>
+      <c r="M16" s="144" t="s">
+        <v>68</v>
+      </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -6778,11 +6778,11 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="152"/>
+      <c r="M17" s="144"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -6803,7 +6803,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="152"/>
+      <c r="M18" s="145"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -6824,7 +6824,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="152"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -6845,7 +6845,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="152"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -6866,7 +6866,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="152"/>
+      <c r="M21" s="145"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -6887,7 +6887,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="152"/>
+      <c r="M22" s="145"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -6908,7 +6908,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="152"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -6929,7 +6929,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="152"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -6950,7 +6950,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="152"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -6971,7 +6971,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="152"/>
+      <c r="M26" s="145"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -6992,7 +6992,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="152"/>
+      <c r="M27" s="145"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="28" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -7013,7 +7013,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="152"/>
+      <c r="M28" s="145"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="29" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -7034,7 +7034,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="152"/>
+      <c r="M29" s="145"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -7055,7 +7055,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="152"/>
+      <c r="M30" s="145"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="31" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -7072,11 +7072,11 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="73"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="152"/>
+      <c r="M31" s="145"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="32" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -7093,11 +7093,11 @@
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="73"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="152"/>
+      <c r="M32" s="145"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="33" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -7114,11 +7114,11 @@
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="73"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
-      <c r="M33" s="152"/>
+      <c r="M33" s="145"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="34" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -7135,11 +7135,11 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="73"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
-      <c r="M34" s="152"/>
+      <c r="M34" s="145"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="35" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -7156,11 +7156,11 @@
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
-      <c r="M35" s="152"/>
+      <c r="M35" s="145"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="36" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -7181,7 +7181,7 @@
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
-      <c r="M36" s="152"/>
+      <c r="M36" s="145"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="37" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -7198,11 +7198,11 @@
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="73"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
-      <c r="M37" s="152"/>
+      <c r="M37" s="145"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="38" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -7219,11 +7219,11 @@
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="73"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
-      <c r="M38" s="152"/>
+      <c r="M38" s="145"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="39" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -7240,11 +7240,11 @@
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="I39" s="65"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="152"/>
+      <c r="M39" s="145"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="40" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -7261,11 +7261,11 @@
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="73"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
-      <c r="M40" s="152"/>
+      <c r="M40" s="145"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="41" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -7282,11 +7282,11 @@
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="73"/>
+      <c r="I41" s="65"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
-      <c r="M41" s="152"/>
+      <c r="M41" s="145"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="42" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -7303,11 +7303,11 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="73"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="152"/>
+      <c r="M42" s="145"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="43" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -7324,11 +7324,11 @@
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="I43" s="65"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
-      <c r="M43" s="152"/>
+      <c r="M43" s="145"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="44" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -7345,11 +7345,11 @@
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="73"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
-      <c r="M44" s="152"/>
+      <c r="M44" s="145"/>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="45" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -7366,11 +7366,11 @@
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="I45" s="65"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="152"/>
+      <c r="M45" s="145"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="46" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -7387,594 +7387,608 @@
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="73"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
-      <c r="M46" s="152"/>
+      <c r="M46" s="145"/>
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
       <c r="Q46" s="28"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="40" t="s">
+    <row r="47" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A47" s="6">
+        <v>32</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="65">
-        <f t="shared" ref="B47:L47" si="0">MAX(B15:B46)</f>
+      <c r="B48" s="59">
+        <f t="shared" ref="B48:L48" si="0">MAX(B16:B47)</f>
         <v>0</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D47" s="65">
+      <c r="D48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I47" s="65">
+      <c r="I48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="65">
+      <c r="J48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K47" s="65">
+      <c r="K48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L47" s="65">
+      <c r="L48" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="48">
-        <f>MAX(R15:R46)</f>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="44">
+        <f>MAX(R16:R47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="40" t="s">
+    <row r="49" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="65" t="str">
-        <f t="shared" ref="B48:R48" si="1">IF(B15="","",MIN(B15:B46))</f>
-        <v/>
-      </c>
-      <c r="C48" s="65" t="str">
+      <c r="B49" s="59" t="str">
+        <f t="shared" ref="B49:R49" si="1">IF(B16="","",MIN(B16:B47))</f>
+        <v/>
+      </c>
+      <c r="C49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D48" s="65" t="str">
+      <c r="D49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E48" s="65" t="str">
+      <c r="E49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F48" s="65" t="str">
+      <c r="F49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="65" t="str">
+      <c r="G49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H48" s="65" t="str">
+      <c r="H49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I48" s="65" t="str">
+      <c r="I49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J48" s="65" t="str">
+      <c r="J49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K48" s="65" t="str">
+      <c r="K49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L48" s="65" t="str">
+      <c r="L49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65" t="str">
+      <c r="M49" s="59"/>
+      <c r="N49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O48" s="65" t="str">
+      <c r="O49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P48" s="65" t="str">
+      <c r="P49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q48" s="65" t="str">
+      <c r="Q49" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R48" s="48" t="str">
+      <c r="R49" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="40" t="s">
+    <row r="50" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="65" t="str">
-        <f t="shared" ref="B49:R49" si="2">IF(B15="","",AVERAGE(B15:B46))</f>
-        <v/>
-      </c>
-      <c r="C49" s="65" t="str">
+      <c r="B50" s="59" t="str">
+        <f t="shared" ref="B50:R50" si="2">IF(B16="","",AVERAGE(B16:B47))</f>
+        <v/>
+      </c>
+      <c r="C50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D49" s="65" t="str">
+      <c r="D50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E49" s="65" t="str">
+      <c r="E50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F49" s="65" t="str">
+      <c r="F50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G49" s="65" t="str">
+      <c r="G50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H49" s="65" t="str">
+      <c r="H50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="65" t="str">
+      <c r="I50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J49" s="65" t="str">
+      <c r="J50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K49" s="65" t="str">
+      <c r="K50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L49" s="65" t="str">
+      <c r="L50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65" t="str">
+      <c r="M50" s="59"/>
+      <c r="N50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O49" s="65" t="str">
+      <c r="O50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P49" s="65" t="str">
+      <c r="P50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q49" s="65" t="str">
+      <c r="Q50" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R49" s="48" t="str">
+      <c r="R50" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="40" t="s">
+    <row r="51" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="22" t="str">
-        <f t="shared" ref="B50:Q50" si="3">IF(B15="","",STDEV(B15:B46))</f>
-        <v/>
-      </c>
-      <c r="C50" s="22" t="str">
+      <c r="B51" s="22" t="str">
+        <f t="shared" ref="B51:Q51" si="3">IF(B16="","",STDEV(B16:B47))</f>
+        <v/>
+      </c>
+      <c r="C51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D50" s="22" t="str">
+      <c r="D51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E50" s="22" t="str">
+      <c r="E51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F50" s="22" t="str">
+      <c r="F51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G50" s="22" t="str">
+      <c r="G51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H50" s="22" t="str">
+      <c r="H51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I50" s="22" t="str">
+      <c r="I51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J50" s="22" t="str">
+      <c r="J51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K50" s="22" t="str">
+      <c r="K51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L50" s="22" t="str">
+      <c r="L51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22" t="str">
+      <c r="M51" s="22"/>
+      <c r="N51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O50" s="22" t="str">
+      <c r="O51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P50" s="22" t="str">
+      <c r="P51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q50" s="22" t="str">
+      <c r="Q51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="40" t="s">
+    <row r="52" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="23" t="str">
-        <f t="shared" ref="B51:R51" si="4">IF(B50="","",IF(B50&lt;&gt;0,(B13-B14)/(6*B50),""))</f>
-        <v/>
-      </c>
-      <c r="C51" s="23" t="str">
+      <c r="B52" s="23" t="str">
+        <f t="shared" ref="B52:R52" si="4">IF(B51="","",IF(B51&lt;&gt;0,(B14-B15)/(6*B51),""))</f>
+        <v/>
+      </c>
+      <c r="C52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D51" s="23" t="str">
+      <c r="D52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E51" s="23" t="str">
+      <c r="E52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F51" s="23" t="str">
+      <c r="F52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G51" s="23" t="str">
+      <c r="G52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H51" s="23" t="str">
+      <c r="H52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I51" s="23" t="str">
+      <c r="I52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J51" s="23" t="str">
+      <c r="J52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K51" s="23" t="str">
+      <c r="K52" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L51" s="23" t="str">
+      <c r="L52" s="23" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O51" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P51" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q51" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R51" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="23" t="str">
-        <f t="shared" ref="B52:Q52" si="5">IF(B50="","",IF(B50&lt;&gt;0,IF(B13="",(B49-B14)/(3*B50),IF(B14="",(B13-B49)/(3*B50),IF(AND(B13="",B14=""),"",(MIN(((B13-B49)/(3*B50)),((B49-B14)/(3*B50))))))),""))</f>
-        <v/>
-      </c>
-      <c r="C52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L52" s="23" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M52" s="23"/>
       <c r="N52" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O52" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P52" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q52" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R52" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="23" t="str">
+        <f t="shared" ref="B53:Q53" si="5">IF(B51="","",IF(B51&lt;&gt;0,IF(B14="",(B50-B15)/(3*B51),IF(B15="",(B14-B50)/(3*B51),IF(AND(B14="",B15=""),"",(MIN(((B14-B50)/(3*B51)),((B50-B15)/(3*B51))))))),""))</f>
+        <v/>
+      </c>
+      <c r="C53" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O52" s="23" t="str">
+      <c r="D53" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P52" s="23" t="str">
+      <c r="E53" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q52" s="23" t="str">
+      <c r="F53" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="G53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q53" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="7" t="str">
-        <f t="shared" ref="B53:Q53" si="6">IF(B15="","",IF(OR(B47&gt;B13,B48&lt;B14),"Fail","Pass"))</f>
-        <v/>
-      </c>
-      <c r="C53" s="7" t="str">
+      <c r="B54" s="7" t="str">
+        <f t="shared" ref="B54:Q54" si="6">IF(B16="","",IF(OR(B48&gt;B14,B49&lt;B15),"Fail","Pass"))</f>
+        <v/>
+      </c>
+      <c r="C54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F53" s="7" t="str">
+      <c r="F54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G53" s="7" t="str">
+      <c r="G54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H53" s="7" t="str">
+      <c r="H54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I53" s="7" t="str">
+      <c r="I54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J53" s="7" t="str">
+      <c r="J54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K53" s="7" t="str">
+      <c r="K54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L53" s="7" t="str">
+      <c r="L54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N53" s="7" t="str">
+      <c r="M54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O53" s="7" t="str">
+      <c r="O54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P53" s="7" t="str">
+      <c r="P54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q53" s="7" t="str">
+      <c r="Q54" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A54" s="8" t="s">
+    <row r="55" spans="1:18" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B55" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="141"/>
-      <c r="L54" s="141"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="143"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="144"/>
-    </row>
-    <row r="55" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="134"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="136"/>
+      <c r="Q55" s="137"/>
+    </row>
+    <row r="56" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="133" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="108"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="98"/>
-    </row>
-    <row r="56" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="20" t="s">
+      <c r="I56" s="12"/>
+      <c r="J56" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="91"/>
+    </row>
+    <row r="57" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="19" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="108"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="98"/>
-    </row>
-    <row r="57" spans="1:18" ht="29.25" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="21" t="s">
+      <c r="I57" s="12"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="91"/>
+    </row>
+    <row r="58" spans="1:18" ht="29.25" customHeight="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="138"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="100"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="H58" s="3"/>
-      <c r="J58" s="5"/>
-      <c r="L58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="93"/>
     </row>
     <row r="59" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="H59" s="3"/>
@@ -7983,29 +7997,40 @@
       <c r="O59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="20.100000000000001" customHeight="1"/>
+    <row r="60" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="H60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="L60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J55:L57"/>
-    <mergeCell ref="M55:N57"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:Q57"/>
+  <mergeCells count="16">
+    <mergeCell ref="J56:L58"/>
+    <mergeCell ref="M56:N58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="P56:Q58"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:M14"/>
-    <mergeCell ref="M15:M46"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:M15"/>
+    <mergeCell ref="M16:M47"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
-  <conditionalFormatting sqref="R47:R49">
+  <conditionalFormatting sqref="R48:R50">
     <cfRule type="cellIs" dxfId="91" priority="332" operator="notBetween">
-      <formula>R$12</formula>
       <formula>R$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R51 B51:Q52">
+      <formula>R$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R52 B52:Q53">
     <cfRule type="cellIs" dxfId="90" priority="330" operator="lessThan">
       <formula>1.33</formula>
     </cfRule>
@@ -8013,13 +8038,13 @@
       <formula>1.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R47:R49">
+  <conditionalFormatting sqref="R48:R50">
     <cfRule type="cellIs" dxfId="88" priority="329" operator="between">
-      <formula>R$12</formula>
       <formula>R$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R51 B51:Q52">
+      <formula>R$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R52 B52:Q53">
     <cfRule type="cellIs" dxfId="87" priority="327" operator="lessThan">
       <formula>1.33</formula>
     </cfRule>
@@ -8027,33 +8052,33 @@
       <formula>1.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:R51">
+  <conditionalFormatting sqref="B52:R52">
     <cfRule type="cellIs" dxfId="85" priority="326" operator="greaterThan">
       <formula>1.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R51 B51:Q52">
+  <conditionalFormatting sqref="R52 B52:Q53">
     <cfRule type="cellIs" dxfId="84" priority="323" operator="greaterThan">
       <formula>1.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J56">
     <cfRule type="containsText" dxfId="83" priority="154" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",J55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NG",J56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",J55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OK",J56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:Q54">
+    <cfRule type="containsText" dxfId="81" priority="129" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",B54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:Q53">
-    <cfRule type="containsText" dxfId="81" priority="129" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",B53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",B53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:Q52">
     <cfRule type="cellIs" dxfId="79" priority="122" operator="greaterThan">
       <formula>1.33</formula>
     </cfRule>
@@ -8061,394 +8086,394 @@
       <formula>1.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:D30 N15:Q46">
+  <conditionalFormatting sqref="B18:D31 N16:Q47 I38:I47 B38:D47">
     <cfRule type="cellIs" dxfId="77" priority="115" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="76" priority="116" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:D16">
     <cfRule type="cellIs" dxfId="75" priority="113" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="114" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:I35 I37:I46">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I36">
     <cfRule type="cellIs" dxfId="73" priority="111" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="72" priority="112" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:L15 J37:L46 J17:L35 F17:F30">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:L16 J38:L47 J18:L36 F18:F31">
     <cfRule type="cellIs" dxfId="71" priority="109" operator="notBetween">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="110" operator="between">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H37:H46 H17:H35">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 H38:H47 H18:H36">
     <cfRule type="cellIs" dxfId="69" priority="103" operator="notBetween">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="104" operator="between">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I17:I19 G17:G30 E17:E30">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16 I18:I20 G18:G31 E18:E31 E38:G47">
     <cfRule type="cellIs" dxfId="67" priority="79" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="80" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="65" priority="77" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="64" priority="78" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I29">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I30">
     <cfRule type="cellIs" dxfId="63" priority="75" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="76" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I29">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I30">
     <cfRule type="cellIs" dxfId="61" priority="73" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="74" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="59" priority="71" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="72" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="57" priority="69" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="56" priority="70" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="55" priority="63" operator="notBetween">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="64" operator="between">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="53" priority="61" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="62" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F30">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F31">
     <cfRule type="cellIs" dxfId="51" priority="57" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="58" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="49" priority="55" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="56" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="47" priority="53" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="54" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" dxfId="45" priority="47" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="48" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="cellIs" dxfId="43" priority="45" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="46" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="44" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D35 B37:D46">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:D36">
     <cfRule type="cellIs" dxfId="39" priority="41" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="42" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:G35 E37:G46">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:G36">
     <cfRule type="cellIs" dxfId="37" priority="37" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="38" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:G35 E37:G46">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:G36">
     <cfRule type="cellIs" dxfId="35" priority="35" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="36" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="34" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:L16">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:L17">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="notBetween">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="32" operator="between">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="notBetween">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="30" operator="between">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:D16">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:D17">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="28" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:G16">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="26" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:G16">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="24" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:D37">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
+      <formula>$B$15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="22" operator="notBetween">
-      <formula>$B$13</formula>
       <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:L36">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:L37">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="notBetween">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="20" operator="between">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="notBetween">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
+      <formula>$H$15</formula>
       <formula>$H$14</formula>
-      <formula>$H$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="14" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="12" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="notBetween">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+      <formula>$J$15</formula>
       <formula>$J$14</formula>
-      <formula>$J$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>$F$15</formula>
       <formula>$F$14</formula>
-      <formula>$F$13</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/New Model Checking Result/NewModelCheckingResult/NewModelCheckingResult/Template/G2-QA-IQC-F074Rev01.xlsx
+++ b/New Model Checking Result/NewModelCheckingResult/NewModelCheckingResult/Template/G2-QA-IQC-F074Rev01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="1 (CP ITEMS)" sheetId="25" r:id="rId1"/>
@@ -881,114 +881,123 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,6 +1016,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,22 +1079,10 @@
     <xf numFmtId="164" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3722,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:U6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3747,32 +3747,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="110"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
       <c r="A2" s="31"/>
@@ -3821,12 +3821,12 @@
       <c r="O3" s="73"/>
       <c r="P3" s="71"/>
       <c r="Q3" s="71"/>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="84"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
       <c r="V3" s="74"/>
       <c r="W3" s="71"/>
       <c r="X3" s="75"/>
@@ -3853,12 +3853,12 @@
       <c r="O4" s="71"/>
       <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="84"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="74"/>
       <c r="W4" s="71"/>
       <c r="X4" s="78"/>
@@ -3885,12 +3885,12 @@
       <c r="O5" s="79"/>
       <c r="P5" s="80"/>
       <c r="Q5" s="71"/>
-      <c r="R5" s="84" t="s">
+      <c r="R5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="84"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
       <c r="V5" s="74"/>
       <c r="W5" s="71"/>
       <c r="X5" s="75"/>
@@ -3910,19 +3910,19 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="118"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
       <c r="O6" s="82"/>
       <c r="P6" s="71"/>
       <c r="Q6" s="83"/>
-      <c r="R6" s="84" t="s">
+      <c r="R6" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
       <c r="V6" s="71"/>
       <c r="W6" s="71"/>
       <c r="X6" s="75"/>
@@ -3956,57 +3956,57 @@
       <c r="Y7" s="43"/>
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119" t="s">
+      <c r="E8" s="102"/>
+      <c r="F8" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="122"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="125"/>
       <c r="Y8" s="43"/>
     </row>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="124"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
@@ -4046,7 +4046,7 @@
       <c r="G10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="124"/>
+      <c r="H10" s="127"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -4068,25 +4068,25 @@
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="124"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -4108,13 +4108,13 @@
       <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="124"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="62"/>
@@ -4136,13 +4136,13 @@
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="127"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -4164,68 +4164,164 @@
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="63">
+        <f>I11+I12</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" ref="J14:X14" si="0">J11+J12</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:25" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="18">
+        <f>I11-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" ref="J15:X15" si="1">J11-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:25" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="67"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -4248,12 +4344,12 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="67"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -4276,12 +4372,12 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="67"/>
       <c r="I18" s="65"/>
       <c r="J18" s="28"/>
@@ -4304,12 +4400,12 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="67"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -4332,12 +4428,12 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="67"/>
       <c r="I20" s="65"/>
       <c r="J20" s="28"/>
@@ -4360,12 +4456,12 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="67"/>
       <c r="I21" s="65"/>
       <c r="J21" s="28"/>
@@ -4388,12 +4484,12 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="67"/>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
@@ -4416,12 +4512,12 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="67"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
@@ -4444,12 +4540,12 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="67"/>
       <c r="I24" s="28"/>
       <c r="J24" s="65"/>
@@ -4472,12 +4568,12 @@
       <c r="A25" s="6">
         <v>10</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="67"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
@@ -4500,12 +4596,12 @@
       <c r="A26" s="6">
         <v>11</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="67"/>
       <c r="I26" s="28"/>
       <c r="J26" s="65"/>
@@ -4523,18 +4619,18 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Z26" s="86"/>
+      <c r="Z26" s="115"/>
     </row>
     <row r="27" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="67"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -4552,18 +4648,18 @@
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
       <c r="X27" s="28"/>
-      <c r="Z27" s="87"/>
+      <c r="Z27" s="116"/>
     </row>
     <row r="28" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="6">
         <v>13</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="67"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
@@ -4581,18 +4677,18 @@
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
       <c r="X28" s="28"/>
-      <c r="Z28" s="87"/>
+      <c r="Z28" s="116"/>
     </row>
     <row r="29" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="6">
         <v>14</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="67"/>
       <c r="I29" s="28"/>
       <c r="J29" s="65"/>
@@ -4610,18 +4706,18 @@
       <c r="V29" s="28"/>
       <c r="W29" s="28"/>
       <c r="X29" s="28"/>
-      <c r="Z29" s="87"/>
+      <c r="Z29" s="116"/>
     </row>
     <row r="30" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="6">
         <v>15</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="67"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -4639,18 +4735,18 @@
       <c r="V30" s="28"/>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
-      <c r="Z30" s="87"/>
+      <c r="Z30" s="116"/>
     </row>
     <row r="31" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="6">
         <v>16</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="67"/>
       <c r="I31" s="28"/>
       <c r="J31" s="65"/>
@@ -4668,18 +4764,18 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
-      <c r="Z31" s="87"/>
+      <c r="Z31" s="116"/>
     </row>
     <row r="32" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="6">
         <v>17</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="67"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
@@ -4697,18 +4793,18 @@
       <c r="V32" s="28"/>
       <c r="W32" s="28"/>
       <c r="X32" s="28"/>
-      <c r="Z32" s="87"/>
+      <c r="Z32" s="116"/>
     </row>
     <row r="33" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="6">
         <v>18</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="67"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
@@ -4726,18 +4822,18 @@
       <c r="V33" s="28"/>
       <c r="W33" s="28"/>
       <c r="X33" s="28"/>
-      <c r="Z33" s="87"/>
+      <c r="Z33" s="116"/>
     </row>
     <row r="34" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="6">
         <v>19</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="67"/>
       <c r="I34" s="65"/>
       <c r="J34" s="65"/>
@@ -4755,18 +4851,18 @@
       <c r="V34" s="28"/>
       <c r="W34" s="28"/>
       <c r="X34" s="28"/>
-      <c r="Z34" s="87"/>
+      <c r="Z34" s="116"/>
     </row>
     <row r="35" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="6">
         <v>20</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="67"/>
       <c r="I35" s="28"/>
       <c r="J35" s="65"/>
@@ -4784,18 +4880,18 @@
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
-      <c r="Z35" s="87"/>
+      <c r="Z35" s="116"/>
     </row>
     <row r="36" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="6">
         <v>21</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="67"/>
       <c r="I36" s="28"/>
       <c r="J36" s="65"/>
@@ -4813,18 +4909,18 @@
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
-      <c r="Z36" s="87"/>
+      <c r="Z36" s="116"/>
     </row>
     <row r="37" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="6">
         <v>22</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="67"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -4842,18 +4938,18 @@
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
-      <c r="Z37" s="87"/>
+      <c r="Z37" s="116"/>
     </row>
     <row r="38" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="6">
         <v>23</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="67"/>
       <c r="I38" s="28"/>
       <c r="J38" s="65"/>
@@ -4871,18 +4967,18 @@
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
-      <c r="Z38" s="87"/>
+      <c r="Z38" s="116"/>
     </row>
     <row r="39" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="6">
         <v>24</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="67"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
@@ -4900,18 +4996,18 @@
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
-      <c r="Z39" s="87"/>
+      <c r="Z39" s="116"/>
     </row>
     <row r="40" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="6">
         <v>25</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="67"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
@@ -4929,18 +5025,18 @@
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
-      <c r="Z40" s="87"/>
+      <c r="Z40" s="116"/>
     </row>
     <row r="41" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="6">
         <v>26</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="67"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
@@ -4958,18 +5054,18 @@
       <c r="V41" s="28"/>
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
-      <c r="Z41" s="87"/>
+      <c r="Z41" s="116"/>
     </row>
     <row r="42" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="6">
         <v>27</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="67"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
@@ -4987,18 +5083,18 @@
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
-      <c r="Z42" s="87"/>
+      <c r="Z42" s="116"/>
     </row>
     <row r="43" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="6">
         <v>28</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="67"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -5016,18 +5112,18 @@
       <c r="V43" s="28"/>
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
-      <c r="Z43" s="87"/>
+      <c r="Z43" s="116"/>
     </row>
     <row r="44" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="6">
         <v>29</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="67"/>
       <c r="I44" s="28"/>
       <c r="J44" s="65"/>
@@ -5045,18 +5141,18 @@
       <c r="V44" s="28"/>
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
-      <c r="Z44" s="87"/>
+      <c r="Z44" s="116"/>
     </row>
     <row r="45" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="6">
         <v>30</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="67"/>
       <c r="I45" s="28"/>
       <c r="J45" s="65"/>
@@ -5074,18 +5170,18 @@
       <c r="V45" s="28"/>
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
-      <c r="Z45" s="87"/>
+      <c r="Z45" s="116"/>
     </row>
     <row r="46" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="6">
         <v>31</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="67"/>
       <c r="I46" s="28"/>
       <c r="J46" s="65"/>
@@ -5103,18 +5199,18 @@
       <c r="V46" s="28"/>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
-      <c r="Z46" s="87"/>
+      <c r="Z46" s="116"/>
     </row>
     <row r="47" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="6">
         <v>32</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="67"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -5132,7 +5228,7 @@
       <c r="V47" s="28"/>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
-      <c r="Z47" s="87"/>
+      <c r="Z47" s="116"/>
     </row>
     <row r="48" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A48" s="37" t="s">
@@ -5146,74 +5242,74 @@
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="59">
-        <f t="shared" ref="I48:Y48" si="0">MAX(I16:I47)</f>
+        <f t="shared" ref="I48:Y48" si="2">MAX(I16:I47)</f>
         <v>0</v>
       </c>
       <c r="J48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y48" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="87"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="116"/>
     </row>
     <row r="49" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="37" t="s">
@@ -5227,74 +5323,74 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="59" t="str">
-        <f t="shared" ref="I49:Y49" si="1">IF(I16="","",MIN(I16:I47))</f>
+        <f t="shared" ref="I49:Y49" si="3">IF(I16="","",MIN(I16:I47))</f>
         <v/>
       </c>
       <c r="J49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y49" s="58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z49" s="87"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z49" s="116"/>
     </row>
     <row r="50" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A50" s="37" t="s">
@@ -5308,74 +5404,74 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="59" t="str">
-        <f t="shared" ref="I50:Y50" si="2">IF(I16="","",AVERAGE(I16:I47))</f>
+        <f t="shared" ref="I50:Y50" si="4">IF(I16="","",AVERAGE(I16:I47))</f>
         <v/>
       </c>
       <c r="J50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y50" s="58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z50" s="87"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z50" s="116"/>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A51" s="37" t="s">
@@ -5389,74 +5485,74 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="22" t="str">
-        <f t="shared" ref="I51:Y51" si="3">IF(I16="","",STDEV(I16:I47))</f>
+        <f t="shared" ref="I51:Y51" si="5">IF(I16="","",STDEV(I16:I47))</f>
         <v/>
       </c>
       <c r="J51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y51" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z51" s="87"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z51" s="116"/>
     </row>
     <row r="52" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A52" s="37" t="s">
@@ -5470,74 +5566,74 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="23" t="str">
-        <f t="shared" ref="I52:Y52" si="4">IF(I51="","",IF(I51&lt;&gt;0,(I14-I15)/(6*I51),""))</f>
+        <f t="shared" ref="I52:Y52" si="6">IF(I51="","",IF(I51&lt;&gt;0,(I14-I15)/(6*I51),""))</f>
         <v/>
       </c>
       <c r="J52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y52" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z52" s="87"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z52" s="116"/>
     </row>
     <row r="53" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A53" s="37" t="s">
@@ -5551,74 +5647,74 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="23" t="str">
-        <f t="shared" ref="I53:Y53" si="5">IF(I51="","",IF(I51&lt;&gt;0,IF(I14="",(I50-I15)/(3*I51),IF(I15="",(I14-I50)/(3*I51),IF(AND(I14="",I15=""),"",(MIN(((I14-I50)/(3*I51)),((I50-I15)/(3*I51))))))),""))</f>
+        <f t="shared" ref="I53:Y53" si="7">IF(I51="","",IF(I51&lt;&gt;0,IF(I14="",(I50-I15)/(3*I51),IF(I15="",(I14-I50)/(3*I51),IF(AND(I14="",I15=""),"",(MIN(((I14-I50)/(3*I51)),((I50-I15)/(3*I51))))))),""))</f>
         <v/>
       </c>
       <c r="J53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y53" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z53" s="87"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z53" s="116"/>
     </row>
     <row r="54" spans="1:26" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="38" t="s">
@@ -5644,74 +5740,74 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="str">
-        <f t="shared" ref="I54:Y54" si="6">IF(I16="","",IF(OR(I48&gt;I14,I49&lt;I15),"Fail","Pass"))</f>
+        <f t="shared" ref="I54:Y54" si="8">IF(I16="","",IF(OR(I48&gt;I14,I49&lt;I15),"Fail","Pass"))</f>
         <v/>
       </c>
       <c r="J54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y54" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z54" s="87"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z54" s="116"/>
     </row>
     <row r="55" spans="1:26" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A55" s="8" t="s">
@@ -5739,24 +5835,24 @@
       </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="96" t="s">
+      <c r="P55" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="99" t="s">
+      <c r="Q55" s="103"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="T55" s="95"/>
-      <c r="U55" s="94" t="s">
+      <c r="T55" s="106"/>
+      <c r="U55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="V55" s="95"/>
-      <c r="W55" s="96" t="s">
+      <c r="V55" s="106"/>
+      <c r="W55" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="X55" s="96"/>
-      <c r="Z55" s="87"/>
+      <c r="X55" s="103"/>
+      <c r="Z55" s="116"/>
     </row>
     <row r="56" spans="1:26" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A56" s="10"/>
@@ -5782,18 +5878,18 @@
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="98" t="s">
+      <c r="P56" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="89"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Z56" s="87"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="121"/>
+      <c r="X56" s="121"/>
+      <c r="Z56" s="116"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1">
       <c r="A57" s="13"/>
@@ -5819,16 +5915,16 @@
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
-      <c r="Z57" s="87"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="121"/>
+      <c r="X57" s="121"/>
+      <c r="Z57" s="116"/>
     </row>
     <row r="58" spans="1:26" ht="25.5" customHeight="1">
       <c r="A58" s="14"/>
@@ -5850,15 +5946,15 @@
       <c r="M58" s="25"/>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="102"/>
-      <c r="T58" s="93"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="112"/>
+      <c r="U58" s="119"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="121"/>
+      <c r="X58" s="121"/>
     </row>
     <row r="59" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="L59" s="3"/>
@@ -5883,6 +5979,29 @@
     <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="G16:G47"/>
+    <mergeCell ref="I8:X8"/>
+    <mergeCell ref="H8:H15"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="Z26:Z57"/>
+    <mergeCell ref="U56:V58"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X58"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R58"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="S56:T58"/>
+    <mergeCell ref="E16:E47"/>
     <mergeCell ref="B16:B47"/>
     <mergeCell ref="C16:C47"/>
     <mergeCell ref="D16:D47"/>
@@ -5899,29 +6018,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R58"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="S56:T58"/>
-    <mergeCell ref="E16:E47"/>
-    <mergeCell ref="Z26:Z57"/>
-    <mergeCell ref="U56:V58"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X58"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="G16:G47"/>
-    <mergeCell ref="I8:X8"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="U54:X54 M54:S54 B54:K54">
@@ -6390,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6411,25 +6507,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="36.950000000000003" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="110"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="31"/>
@@ -6468,8 +6564,8 @@
       <c r="M3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
       <c r="P3" s="71"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="30"/>
@@ -6494,8 +6590,8 @@
       <c r="M4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
       <c r="P4" s="74"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="30"/>
@@ -6520,8 +6616,8 @@
       <c r="M5" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
       <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="30"/>
@@ -6540,16 +6636,16 @@
       <c r="G6" s="83"/>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="150"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="86"/>
       <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
@@ -6565,7 +6661,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
-      <c r="M7" s="147"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="54"/>
       <c r="O7" s="53"/>
       <c r="P7" s="54"/>
@@ -6574,23 +6670,23 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="145" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="56"/>
@@ -6600,7 +6696,7 @@
       <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:19" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -6612,7 +6708,7 @@
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="142"/>
+      <c r="M9" s="146"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -6633,7 +6729,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="142"/>
+      <c r="M10" s="146"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -6654,7 +6750,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62"/>
-      <c r="M11" s="142"/>
+      <c r="M11" s="146"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
@@ -6675,7 +6771,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
-      <c r="M12" s="142"/>
+      <c r="M12" s="146"/>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -6696,7 +6792,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
-      <c r="M13" s="142"/>
+      <c r="M13" s="146"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -6706,43 +6802,133 @@
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="B14" s="63">
+        <f>B11+B12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="63">
+        <f t="shared" ref="C14:L14" si="0">C11+C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="146"/>
+      <c r="N14" s="18">
+        <f>N11+N12</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" ref="O14:Q14" si="1">O11+O12</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="B15" s="18">
+        <f>B11-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" ref="C15:L15" si="2">C11-C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="147"/>
+      <c r="N15" s="18">
+        <f>N11-N13</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" ref="O15:Q15" si="3">O11-O13</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="6">
@@ -6759,7 +6945,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="144" t="s">
+      <c r="M16" s="148" t="s">
         <v>68</v>
       </c>
       <c r="N16" s="28"/>
@@ -6782,7 +6968,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="144"/>
+      <c r="M17" s="148"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -6803,7 +6989,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="145"/>
+      <c r="M18" s="149"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
@@ -6824,7 +7010,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="145"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -6845,7 +7031,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="145"/>
+      <c r="M20" s="149"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -6866,7 +7052,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="145"/>
+      <c r="M21" s="149"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -6887,7 +7073,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="145"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -6908,7 +7094,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="145"/>
+      <c r="M23" s="149"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
@@ -6929,7 +7115,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="145"/>
+      <c r="M24" s="149"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
@@ -6950,7 +7136,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="145"/>
+      <c r="M25" s="149"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
@@ -6971,7 +7157,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="145"/>
+      <c r="M26" s="149"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
@@ -6992,7 +7178,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="145"/>
+      <c r="M27" s="149"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -7013,7 +7199,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="145"/>
+      <c r="M28" s="149"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
@@ -7034,7 +7220,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="145"/>
+      <c r="M29" s="149"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
@@ -7055,7 +7241,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="145"/>
+      <c r="M30" s="149"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
@@ -7076,7 +7262,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="145"/>
+      <c r="M31" s="149"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
@@ -7097,7 +7283,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="145"/>
+      <c r="M32" s="149"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -7118,7 +7304,7 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
-      <c r="M33" s="145"/>
+      <c r="M33" s="149"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
@@ -7139,7 +7325,7 @@
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
-      <c r="M34" s="145"/>
+      <c r="M34" s="149"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
@@ -7160,7 +7346,7 @@
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
-      <c r="M35" s="145"/>
+      <c r="M35" s="149"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
@@ -7181,7 +7367,7 @@
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
-      <c r="M36" s="145"/>
+      <c r="M36" s="149"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -7202,7 +7388,7 @@
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
-      <c r="M37" s="145"/>
+      <c r="M37" s="149"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
@@ -7223,7 +7409,7 @@
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
-      <c r="M38" s="145"/>
+      <c r="M38" s="149"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -7244,7 +7430,7 @@
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="145"/>
+      <c r="M39" s="149"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
@@ -7265,7 +7451,7 @@
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
-      <c r="M40" s="145"/>
+      <c r="M40" s="149"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
@@ -7286,7 +7472,7 @@
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
-      <c r="M41" s="145"/>
+      <c r="M41" s="149"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -7307,7 +7493,7 @@
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="145"/>
+      <c r="M42" s="149"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
@@ -7328,7 +7514,7 @@
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
-      <c r="M43" s="145"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -7349,7 +7535,7 @@
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
-      <c r="M44" s="145"/>
+      <c r="M44" s="149"/>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
@@ -7370,7 +7556,7 @@
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="145"/>
+      <c r="M45" s="149"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
@@ -7391,7 +7577,7 @@
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
-      <c r="M46" s="145"/>
+      <c r="M46" s="149"/>
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
@@ -7412,7 +7598,7 @@
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="145"/>
+      <c r="M47" s="149"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
@@ -7423,47 +7609,47 @@
         <v>53</v>
       </c>
       <c r="B48" s="59">
-        <f t="shared" ref="B48:L48" si="0">MAX(B16:B47)</f>
+        <f t="shared" ref="B48:L48" si="4">MAX(B16:B47)</f>
         <v>0</v>
       </c>
       <c r="C48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L48" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48" s="59"/>
@@ -7481,68 +7667,68 @@
         <v>54</v>
       </c>
       <c r="B49" s="59" t="str">
-        <f t="shared" ref="B49:R49" si="1">IF(B16="","",MIN(B16:B47))</f>
+        <f t="shared" ref="B49:R49" si="5">IF(B16="","",MIN(B16:B47))</f>
         <v/>
       </c>
       <c r="C49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M49" s="59"/>
       <c r="N49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q49" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R49" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7551,68 +7737,68 @@
         <v>12</v>
       </c>
       <c r="B50" s="59" t="str">
-        <f t="shared" ref="B50:R50" si="2">IF(B16="","",AVERAGE(B16:B47))</f>
+        <f t="shared" ref="B50:R50" si="6">IF(B16="","",AVERAGE(B16:B47))</f>
         <v/>
       </c>
       <c r="C50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M50" s="59"/>
       <c r="N50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q50" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R50" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7621,64 +7807,64 @@
         <v>20</v>
       </c>
       <c r="B51" s="22" t="str">
-        <f t="shared" ref="B51:Q51" si="3">IF(B16="","",STDEV(B16:B47))</f>
+        <f t="shared" ref="B51:Q51" si="7">IF(B16="","",STDEV(B16:B47))</f>
         <v/>
       </c>
       <c r="C51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7687,68 +7873,68 @@
         <v>14</v>
       </c>
       <c r="B52" s="23" t="str">
-        <f t="shared" ref="B52:R52" si="4">IF(B51="","",IF(B51&lt;&gt;0,(B14-B15)/(6*B51),""))</f>
+        <f t="shared" ref="B52:R52" si="8">IF(B51="","",IF(B51&lt;&gt;0,(B14-B15)/(6*B51),""))</f>
         <v/>
       </c>
       <c r="C52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M52" s="23"/>
       <c r="N52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R52" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7757,64 +7943,64 @@
         <v>13</v>
       </c>
       <c r="B53" s="23" t="str">
-        <f t="shared" ref="B53:Q53" si="5">IF(B51="","",IF(B51&lt;&gt;0,IF(B14="",(B50-B15)/(3*B51),IF(B15="",(B14-B50)/(3*B51),IF(AND(B14="",B15=""),"",(MIN(((B14-B50)/(3*B51)),((B50-B15)/(3*B51))))))),""))</f>
+        <f t="shared" ref="B53:Q53" si="9">IF(B51="","",IF(B51&lt;&gt;0,IF(B14="",(B50-B15)/(3*B51),IF(B15="",(B14-B50)/(3*B51),IF(AND(B14="",B15=""),"",(MIN(((B14-B50)/(3*B51)),((B50-B15)/(3*B51))))))),""))</f>
         <v/>
       </c>
       <c r="C53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q53" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7823,66 +8009,66 @@
         <v>21</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f t="shared" ref="B54:Q54" si="6">IF(B16="","",IF(OR(B48&gt;B14,B49&lt;B15),"Fail","Pass"))</f>
+        <f t="shared" ref="B54:Q54" si="10">IF(B16="","",IF(OR(B48&gt;B14,B49&lt;B15),"Fail","Pass"))</f>
         <v/>
       </c>
       <c r="C54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M54" s="7" t="s">
         <v>67</v>
       </c>
       <c r="N54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q54" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7904,16 +8090,16 @@
         <v>24</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="134" t="s">
+      <c r="J55" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="135"/>
-      <c r="N55" s="136"/>
+      <c r="K55" s="138"/>
+      <c r="L55" s="138"/>
+      <c r="M55" s="139"/>
+      <c r="N55" s="140"/>
       <c r="O55" s="66"/>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="137"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="141"/>
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="10"/>
@@ -7931,16 +8117,16 @@
         <v>25</v>
       </c>
       <c r="I56" s="12"/>
-      <c r="J56" s="126" t="s">
+      <c r="J56" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="K56" s="127"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="91"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="110"/>
     </row>
     <row r="57" spans="1:18" ht="23.25" customHeight="1">
       <c r="A57" s="13"/>
@@ -7958,14 +8144,14 @@
         <v>26</v>
       </c>
       <c r="I57" s="12"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="128"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="91"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="110"/>
     </row>
     <row r="58" spans="1:18" ht="29.25" customHeight="1">
       <c r="A58" s="14"/>
@@ -7981,14 +8167,14 @@
       <c r="G58" s="24"/>
       <c r="H58" s="25"/>
       <c r="I58" s="24"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="102"/>
-      <c r="O58" s="102"/>
-      <c r="P58" s="102"/>
-      <c r="Q58" s="93"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="112"/>
     </row>
     <row r="59" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="H59" s="3"/>
